--- a/PES/SRB Invoices/1032  Invoice for Nueplex Cinema DHA Phase VIII for March 2024.xlsx
+++ b/PES/SRB Invoices/1032  Invoice for Nueplex Cinema DHA Phase VIII for March 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475BABF4-AF1E-41F0-9A5A-902D3089A87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BD46FB-6DAA-406A-8134-989AFFE7F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,6 +417,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,27 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,16 +1054,16 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1083,11 +1083,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1096,11 +1096,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1120,85 +1120,85 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="33"/>
       <c r="E18" s="4"/>
       <c r="F18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="57"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="52"/>
+      <c r="H19" s="59"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="24"/>
       <c r="E20" s="3"/>
       <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="35"/>
       <c r="E21" s="3"/>
       <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="43"/>
+      <c r="H21" s="50"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1223,11 +1223,11 @@
       <c r="A25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="28" t="s">
         <v>13</v>
       </c>
@@ -1255,11 +1255,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1268,9 +1268,9 @@
     </row>
     <row r="28" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1279,25 +1279,25 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="48">
         <v>1</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60">
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44">
         <v>340000</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="45">
         <v>0.13</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="46">
         <f>E29*13%</f>
         <v>44200</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="56">
         <f>E29+G29</f>
         <v>384200</v>
       </c>
@@ -1306,14 +1306,14 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="49"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="8"/>
       <c r="J30" s="39"/>
       <c r="K30" s="8"/>
@@ -1390,11 +1390,11 @@
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="16">
         <f>SUM(E29:E35)</f>
         <v>340000</v>
@@ -1457,11 +1457,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B19:C19"/>
@@ -1478,11 +1473,16 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0" bottom="0.25" header="0.2" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>